--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598308.7820235866</v>
+        <v>638640.3216923916</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889769</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341311.708736052</v>
+        <v>8323672.938960839</v>
       </c>
     </row>
     <row r="11">
@@ -668,61 +670,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>59.55315046156458</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>33.69176698831624</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>29.78216610882001</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.43074352985859</v>
+        <v>11.96328195275254</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1026,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.40579841663011</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11.68988239873802</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>166.5470395114565</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>69.40990664858349</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>257.0152846411277</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1458,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>11.39108932485964</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1667,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>279.5364382770886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1749,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -1816,10 +1818,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>144.5450396847797</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.304756115063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.44045292477201</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>80.82857834237338</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>68.92273713484519</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.26618645491687</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>8.546296656422641</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>376.1848636439243</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>144.2406440115528</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2454,7 +2456,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>266.8105066124078</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>398.834851475613</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>17.49690079789893</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>129.0246247964035</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>192.4820075018952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.932784358880653</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.35002255071618</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>401.3550844723781</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -3074,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>32.24381740537248</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>89.74751674279177</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>74.68746750423044</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>392.2167866975187</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.60620160013907</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49.3895792560368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6628440710897</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.998219257060982</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>156.1271626621473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>48.74430349788367</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>88.06311349350455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>68.4314178382491</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>305.9234202914932</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.90301252244888</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.3395341116723</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="C3" t="n">
-        <v>339.3395341116723</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E3" t="n">
         <v>279.1848366757484</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>339.3395341116723</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.3395341116723</v>
+        <v>930.0250676436501</v>
       </c>
     </row>
     <row r="4">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.9530410142718</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9530410142718</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278869</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>487.4018176583718</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.6469426057911</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="C6" t="n">
-        <v>533.6469426057911</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="D6" t="n">
-        <v>533.6469426057911</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="E6" t="n">
         <v>508.9694238887622</v>
@@ -4641,7 +4643,7 @@
         <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.8095319084027</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972852</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.870560869402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057911</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057911</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057911</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>533.6469426057911</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y6" t="n">
-        <v>533.6469426057911</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.1249510203241</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C8" t="n">
-        <v>87.22390662470127</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D8" t="n">
-        <v>87.22390662470127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>87.22390662470127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>87.22390662470127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>87.22390662470127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>87.22390662470127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S8" t="n">
-        <v>843.966258332007</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T8" t="n">
-        <v>619.0259954159469</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U8" t="n">
-        <v>619.0259954159469</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V8" t="n">
-        <v>619.0259954159469</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W8" t="n">
-        <v>619.0259954159469</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="X8" t="n">
-        <v>619.0259954159469</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.1249510203241</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>469.1409998161117</v>
+        <v>567.60420440717</v>
       </c>
       <c r="C9" t="n">
-        <v>294.6879705349846</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D9" t="n">
-        <v>145.7535608737334</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E9" t="n">
-        <v>145.7535608737334</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>133.9455988548061</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>133.9455988548061</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>339.9440834239258</v>
+        <v>234.8108274061909</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>795.827822670781</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>567.60420440717</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806666</v>
+        <v>567.60420440717</v>
       </c>
       <c r="W9" t="n">
-        <v>1052.968135806666</v>
+        <v>567.60420440717</v>
       </c>
       <c r="X9" t="n">
-        <v>845.1166356011336</v>
+        <v>567.60420440717</v>
       </c>
       <c r="Y9" t="n">
-        <v>637.3563368361797</v>
+        <v>567.60420440717</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>112.3979106539025</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>2255.520561484593</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1886.558044544181</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>731.5181885495792</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>313.5543804477661</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961344</v>
@@ -5115,52 +5117,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5194,10 +5196,10 @@
         <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1380.123535465744</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C14" t="n">
-        <v>1011.161018525332</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.161018525332</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E14" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,10 +5302,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
         <v>2247.308246834948</v>
@@ -5312,16 +5314,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W14" t="n">
-        <v>1380.123535465744</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X14" t="n">
-        <v>1380.123535465744</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y14" t="n">
-        <v>1380.123535465744</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5367,13 +5369,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>190.2718927217162</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2323.103882821189</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5555,10 +5557,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X19" t="n">
-        <v>380.6911546495019</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253592</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036446</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2627.530164619389</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2296.467277275819</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W20" t="n">
-        <v>1943.698622005704</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>2540.369809567132</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>2250.952639530171</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D23" t="n">
-        <v>819.7159451700475</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E23" t="n">
-        <v>433.9276925718032</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6078,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1865.381229508782</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C26" t="n">
-        <v>1865.381229508782</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>1194.987092912972</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>784.0011881233647</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
@@ -6224,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y26" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6294,40 +6296,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6388,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>597.8010803716834</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1916.245359491378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>1916.245359491378</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>1557.979660884627</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6464,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1916.245359491378</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1916.245359491378</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2191.89927156006</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>194.244402175131</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>57.91549127377925</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2674.573310663964</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.573310663964</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>2674.573310663964</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>2674.573310663964</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>2419.888822458077</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>2419.888822458077</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>2191.89927156006</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y31" t="n">
-        <v>2191.89927156006</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2310.549250954101</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C32" t="n">
-        <v>1941.586734013689</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.321035406939</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>1197.532782808694</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>786.546878019087</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2609.550889018036</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018223</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018223</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6798,28 +6800,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>579.9823256406185</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X34" t="n">
-        <v>579.9823256406185</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C35" t="n">
-        <v>1194.175505447095</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D35" t="n">
-        <v>835.9098068403448</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E35" t="n">
-        <v>450.1215542421006</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224075</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748109</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487029</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7020,7 +7022,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7035,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2067.009756915122</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7101,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.694245121009</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U37" t="n">
-        <v>2321.694245121009</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V37" t="n">
-        <v>2067.009756915122</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W37" t="n">
-        <v>2067.009756915122</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X37" t="n">
-        <v>2067.009756915122</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="Y37" t="n">
-        <v>2067.009756915122</v>
+        <v>2241.851352788807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1249.712458167646</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C38" t="n">
-        <v>880.7499412272343</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D38" t="n">
-        <v>880.7499412272343</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E38" t="n">
-        <v>880.7499412272343</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>469.7640364376268</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7205,19 +7207,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="39">
@@ -7233,19 +7235,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7257,19 +7259,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7336,34 +7338,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>500.8207968750362</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U40" t="n">
-        <v>211.6471865296041</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
         <v>53.94298182036445</v>
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1370.766673031379</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>1001.804156090968</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D41" t="n">
-        <v>1001.804156090968</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E41" t="n">
-        <v>1001.804156090968</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7436,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2520.971603332393</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.505845071313</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1757.366513095501</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7470,10 +7472,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961342</v>
@@ -7488,31 +7490,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073963</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8956217127933</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7573,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406185</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="U43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y43" t="n">
-        <v>290.8087152951864</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>885.3850306156796</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>516.422513675268</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>516.422513675268</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>516.422513675268</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>516.422513675268</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>516.422513675268</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7679,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.589960916693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1662.124202655613</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.984870679801</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7730,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,13 +7748,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
         <v>2289.884200196743</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2079.430778048768</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0408247018198</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>208.6636522899706</v>
+        <v>359.8407857361377</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808119</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10668,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22556,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.89191510307418</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>171.9909287889881</v>
       </c>
     </row>
     <row r="4">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>221.5634867990165</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>155.3634430599709</v>
       </c>
     </row>
     <row r="6">
@@ -22869,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>133.2143369255424</v>
+        <v>145.6817985026484</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22914,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23021,10 +23023,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>145.5033637727408</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3793299946458</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>33.61768918336514</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79256385362727</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>66.90748812322948</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>371.3427523386209</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>69.70453044032445</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>80.49006577330462</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.42908554841756</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.2692024642651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>332.9555916784216</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>182.3014303734441</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>121.3492865632955</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>243.5913466674054</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>30.69118209778713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>269.5435260092422</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>87.87253500827512</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>14.94931854518194</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24610,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>127.9241472250323</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>83.12091415361536</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>189.4483625703666</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>41.26717482965635</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>124.3151694294417</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.42908554841694</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>184.2045029522853</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>45.21810504954645</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>290.5854242667771</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.65925904419277</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>123.6406194984888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>97.04438339053237</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.121325949705295</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,10 +25447,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>249.2259482512283</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>358.1317422438278</v>
+        <v>379.9321508152008</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>57.3579345294267</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.23377414190875</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>17.9993524728639</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>92.71246049576348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473796.0964945848</v>
+        <v>473796.0964945849</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.1898834556</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26329,7 +26331,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26338,7 +26340,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26347,7 +26349,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266302</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525687</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>33719.40849968307</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26457,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="D5" t="n">
         <v>48281.26876376166</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,10 +26487,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26497,10 +26499,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21463.97542793463</v>
+        <v>-21463.97542793462</v>
       </c>
       <c r="C6" t="n">
-        <v>59305.45610361312</v>
+        <v>59305.45610361314</v>
       </c>
       <c r="D6" t="n">
-        <v>36871.72451806864</v>
+        <v>59305.45610361309</v>
       </c>
       <c r="E6" t="n">
-        <v>-247116.9438738567</v>
+        <v>-272242.6802332784</v>
       </c>
       <c r="F6" t="n">
         <v>160603.4938097176</v>
@@ -26537,25 +26539,25 @@
         <v>160603.4938097176</v>
       </c>
       <c r="H6" t="n">
-        <v>160603.4938097176</v>
+        <v>160603.4938097175</v>
       </c>
       <c r="I6" t="n">
         <v>160603.4938097176</v>
       </c>
       <c r="J6" t="n">
-        <v>97543.55121061142</v>
+        <v>97543.55121061135</v>
       </c>
       <c r="K6" t="n">
-        <v>160603.4938097175</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="L6" t="n">
-        <v>154977.8515811919</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="M6" t="n">
-        <v>58169.37611908242</v>
+        <v>52630.13313565946</v>
       </c>
       <c r="N6" t="n">
-        <v>160603.4938097176</v>
+        <v>160603.4938097178</v>
       </c>
       <c r="O6" t="n">
         <v>160603.4938097176</v>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26753,31 +26755,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26790,25 +26792,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D4" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="D4" t="n">
-        <v>263.2420339516666</v>
-      </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26817,10 +26819,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2277450740076</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400771</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.2277450740076</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33172,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798015</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>79.07191193225252</v>
+        <v>217.7067518141194</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,10 +35737,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37561,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638640.3216923916</v>
+        <v>570320.5464695439</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>335414.3901624708</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10905804.67830211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8323672.938960839</v>
+        <v>8344276.874268916</v>
       </c>
     </row>
     <row r="11">
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.69176698831624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>82.03417997490668</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.8744955960827</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11.96328195275254</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>144.5438283638929</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.014288877659</v>
+        <v>184.6873296566787</v>
       </c>
       <c r="X8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>166.5470395114565</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>184.2306718995538</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>257.0152846411277</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.4588318996854</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>80.30846669433845</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.39108932485964</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>57.66595549467266</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1657,7 +1657,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1736,7 +1736,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>83.59830597394804</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>257.0719521914901</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>83.82953530753669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>80.82857834237338</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>27.4470755450446</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.26618645491687</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.8683972746516</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2406440115528</v>
+        <v>242.6393413478976</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.834851475613</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>34.78065824339543</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.440065804380628</v>
       </c>
       <c r="F28" t="n">
-        <v>17.49690079789893</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>92.6845875604113</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>56.881969878158</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.932784358880653</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>308.1699826279565</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>32.24381740537248</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>101.7177065691261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>74.68746750423044</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>177.292668453297</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>49.3895792560368</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>336.6153965471916</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>1.998219257060982</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>47.40419526769212</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.4314178382491</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>173.3086298268758</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>284.5615160058697</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4351,22 +4351,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
         <v>506.1786963984129</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761.8097306235821</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>587.3567013424552</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>438.4222916812039</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
         <v>234.810827406191</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>930.0250676436501</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>489.428647084929</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>489.428647084929</v>
       </c>
       <c r="D5" t="n">
-        <v>487.4018176583718</v>
+        <v>489.428647084929</v>
       </c>
       <c r="E5" t="n">
-        <v>487.4018176583718</v>
+        <v>489.428647084929</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>489.428647084929</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>736.461710075982</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>736.461710075982</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>736.461710075982</v>
       </c>
       <c r="Y5" t="n">
-        <v>730.8505943024719</v>
+        <v>489.428647084929</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521.0535470733607</v>
+        <v>194.0180478700184</v>
       </c>
       <c r="C6" t="n">
-        <v>521.0535470733607</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>521.0535470733607</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>20.23786849471571</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>251.8996143319767</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>494.0167193695077</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357626</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097865</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>547.8734151097865</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>401.8695480755512</v>
       </c>
       <c r="X6" t="n">
-        <v>521.0535470733607</v>
+        <v>194.0180478700184</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.0535470733607</v>
+        <v>194.0180478700184</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>964.057155510636</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>964.057155510636</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T8" t="n">
-        <v>749.6274730425127</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="U8" t="n">
-        <v>749.6274730425127</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="V8" t="n">
-        <v>749.6274730425127</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117561</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>567.60420440717</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
-        <v>567.60420440717</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>418.6697947459187</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>234.8108274061909</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950733</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>795.827822670781</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U9" t="n">
-        <v>567.60420440717</v>
+        <v>622.7627494639471</v>
       </c>
       <c r="V9" t="n">
-        <v>567.60420440717</v>
+        <v>622.7627494639471</v>
       </c>
       <c r="W9" t="n">
-        <v>567.60420440717</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>567.60420440717</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>567.60420440717</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2255.520561484593</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.558044544181</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D11" t="n">
-        <v>1528.292345937431</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>1142.504093339187</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>731.5181885495792</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>313.5543804477661</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548715</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548715</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548715</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548715</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548715</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548715</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961344</v>
@@ -5117,55 +5117,55 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>534.603677789272</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C14" t="n">
-        <v>534.603677789272</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D14" t="n">
-        <v>534.603677789272</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E14" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.483574129469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859355</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982752</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224635</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5366,16 +5366,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5384,22 +5384,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>138.3857151273827</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5594,43 +5594,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5694,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942401</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>261.391796148808</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V19" t="n">
-        <v>261.391796148808</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W19" t="n">
-        <v>261.391796148808</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X19" t="n">
-        <v>261.391796148808</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1190.010945960184</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C20" t="n">
-        <v>821.0484290197721</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D20" t="n">
-        <v>462.7827304130216</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E20" t="n">
-        <v>462.7827304130216</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F20" t="n">
-        <v>462.7827304130216</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>1563.476704221264</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.010945960184</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y20" t="n">
-        <v>1190.010945960184</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>398.3338608103785</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C22" t="n">
-        <v>229.3976778824716</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>552.5043404946649</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1639.851790143458</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C23" t="n">
-        <v>1270.889273203046</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D23" t="n">
-        <v>912.6235745962956</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="E23" t="n">
-        <v>526.8353219980513</v>
+        <v>710.0191303957272</v>
       </c>
       <c r="F23" t="n">
-        <v>526.8353219980513</v>
+        <v>299.0332256061196</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,10 +5989,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224073</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y23" t="n">
-        <v>1639.851790143458</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W25" t="n">
-        <v>184.0273259635867</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1580.775345511217</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.775345511217</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>1580.775345511217</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>1194.987092912972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>784.0011881233647</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6308,13 +6308,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6939024587809</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>365.6939024587809</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>365.6939024587809</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E28" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>474.7584972999286</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>474.7584972999286</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>147.5637773359314</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.9927747426009</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="C31" t="n">
-        <v>351.9927747426009</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="D31" t="n">
-        <v>351.9927747426009</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="E31" t="n">
-        <v>351.9927747426009</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="F31" t="n">
-        <v>351.9927747426009</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="G31" t="n">
-        <v>351.9927747426009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>194.244402175131</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>57.91549127377925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>351.9927747426009</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.9927747426009</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1579.049931616194</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.087414675782</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.087414675782</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2609.550889018036</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2355.789103656128</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2355.789103656128</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2355.789103656128</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>2355.789103656128</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>1965.649771680316</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6800,28 +6800,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="W34" t="n">
-        <v>502.7251118619119</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="X34" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1611.619444146874</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C35" t="n">
-        <v>1536.177557778964</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.911859172214</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1236065739693</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>650.9902934103563</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>233.0264853085432</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X35" t="n">
-        <v>2388.358616186807</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y35" t="n">
-        <v>1998.219284210995</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424003</v>
@@ -7025,7 +7025,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2241.851352788807</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C37" t="n">
-        <v>2241.851352788807</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D37" t="n">
-        <v>2241.851352788807</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E37" t="n">
-        <v>2191.96288889382</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2241.851352788807</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2241.851352788807</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1192.157102157134</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C38" t="n">
-        <v>823.1945852167225</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="D38" t="n">
-        <v>464.928886609972</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>547.4245098931451</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2695.130687728262</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2695.130687728262</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W38" t="n">
-        <v>2342.362032458147</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X38" t="n">
-        <v>1968.896274197068</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1578.756942221256</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7259,37 +7259,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7362,7 +7362,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>597.8010803716834</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
         <v>308.6274700262513</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.175505447095</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C41" t="n">
-        <v>825.2129885066831</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D41" t="n">
-        <v>466.9472898999326</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E41" t="n">
-        <v>81.15903730168839</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,31 +7490,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073963</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>659.0063399253745</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>659.0063399253745</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>659.0063399253745</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U43" t="n">
-        <v>369.8327295799424</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>369.8327295799424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7836,16 +7836,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036445</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.245041851987</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>384.6945110063437</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361377</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.292646620523</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,10 +22606,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.9909287889881</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>245.7180784952282</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.3634430599709</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>145.6817985026484</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>107.1511547970267</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>11.5339073531143</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>164.5536390607343</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>33.61768918336514</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>67.46431126136585</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>2.023134740338719</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>66.90748812322948</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>85.98948845797244</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>131.8370722556805</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>371.3427523386209</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>307.6069362763349</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23700,22 +23700,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>202.6835682680297</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>97.61108942919287</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>83.48026695151422</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.21032716693568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>332.9555916784216</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>296.4756972193126</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>121.3492865632955</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>38.27714167536732</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24208,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5435260092422</v>
+        <v>171.1448286728974</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>110.3648512204699</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>14.94931854518194</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,7 +24502,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>292.9716002267395</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="F28" t="n">
-        <v>127.9241472250323</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>59.24672868444995</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>110.4278323808929</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>41.26717482965635</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>184.2045029522853</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>110.4278323808928</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>290.5854242667771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>146.6301043110602</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>97.04438339053237</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>77.16877347360338</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>249.2259482512283</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>96.01048066168096</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>379.9321508152008</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>322.3269054107769</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>78.23377414190875</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>191.9642619441317</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>85.16958467259929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945847</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473796.0964945848</v>
+        <v>476879.8686487639</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473796.0964945848</v>
+        <v>492874.1898834556</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26328,13 +26328,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="I2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26349,7 +26349,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33649.84678425771</v>
+        <v>33663.59862924286</v>
       </c>
       <c r="D4" t="n">
-        <v>33649.84678425771</v>
+        <v>33719.40849968306</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26472,13 +26472,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21463.97542793462</v>
+        <v>-33681.98604797502</v>
       </c>
       <c r="C6" t="n">
-        <v>59305.45610361314</v>
+        <v>43329.60333142111</v>
       </c>
       <c r="D6" t="n">
-        <v>59305.45610361309</v>
+        <v>29261.28841583907</v>
       </c>
       <c r="E6" t="n">
-        <v>-272242.6802332784</v>
+        <v>-253185.3576196761</v>
       </c>
       <c r="F6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="G6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638983</v>
       </c>
       <c r="H6" t="n">
-        <v>160603.4938097175</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="I6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638983</v>
       </c>
       <c r="J6" t="n">
-        <v>97543.55121061135</v>
+        <v>91475.13746479215</v>
       </c>
       <c r="K6" t="n">
-        <v>160603.4938097176</v>
+        <v>153621.8242614413</v>
       </c>
       <c r="L6" t="n">
-        <v>160603.4938097176</v>
+        <v>149807.516945051</v>
       </c>
       <c r="M6" t="n">
-        <v>52630.13313565946</v>
+        <v>52100.96237326325</v>
       </c>
       <c r="N6" t="n">
-        <v>160603.4938097178</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="O6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="P6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26792,16 +26792,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0.6796463695195167</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141194</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
@@ -35734,10 +35734,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
         <v>297.2230414343419</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,10 +36685,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37393,13 +37393,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060965</v>
@@ -37557,13 +37557,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38098,7 +38098,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
